--- a/MAIN ASSIGNMENT/UserRegisteredDetails.xlsx
+++ b/MAIN ASSIGNMENT/UserRegisteredDetails.xlsx
@@ -9,7 +9,7 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -435,10 +435,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -501,27 +501,81 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Kumar</t>
+          <t>SaiKumar</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Kumar@123</t>
+          <t>ch@12</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>6303121212</t>
+          <t>666888978</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Sai</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>SS</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Sai</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>SS</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>SS</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
     </row>
